--- a/rank_analysis/3-1-analysis.xlsx
+++ b/rank_analysis/3-1-analysis.xlsx
@@ -388,7 +388,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>8.6</t>
+          <t>10.2</t>
         </is>
       </c>
     </row>
@@ -405,7 +405,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>26.55</t>
+          <t>39.95</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>58.3</t>
+          <t>51.68</t>
         </is>
       </c>
     </row>
@@ -439,7 +439,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>205.24</t>
+          <t>121.23</t>
         </is>
       </c>
     </row>
@@ -451,12 +451,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>537.054</t>
+          <t>174.56</t>
         </is>
       </c>
     </row>
@@ -468,12 +468,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>0.2</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>899.416</t>
+          <t>157.546</t>
         </is>
       </c>
     </row>
